--- a/data/hotels_by_city/Dallas/Dallas_shard_679.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_679.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,158 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r586058566-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>98719</t>
+  </si>
+  <si>
+    <t>586058566</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Remodeled...working out the kinks.</t>
+  </si>
+  <si>
+    <t>The rooms and lobby have all been remodeled and very tastefully done!  The AC was not working in the lobby and halls when we arrived, but fixed within a few hours.  The room was nice and clean.  The staff was very accommodating and friendly.  We dined in the little restaurant by the bar and found it rather disappointing.  With so many great local restaurants...go out.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r585548385-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>585548385</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>They do not use AC much!!</t>
+  </si>
+  <si>
+    <t>The hotel itself was fine, the staff was pretty friendly BUT THE AC WASN’T SET AT ANYTHING BELOW 80.  It was warm in the rooms, warm in the hallway, warm in the lobby.  They must keep it up to save on their electric bill.  It was 97 degrees in Dallas so you want to have it nice and cool when you are inside.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Stephen W, Front Office Manager at Sheraton Suites Market Center, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>The hotel itself was fine, the staff was pretty friendly BUT THE AC WASN’T SET AT ANYTHING BELOW 80.  It was warm in the rooms, warm in the hallway, warm in the lobby.  They must keep it up to save on their electric bill.  It was 97 degrees in Dallas so you want to have it nice and cool when you are inside.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r585152748-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>585152748</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Quiet room and easy access</t>
+  </si>
+  <si>
+    <t>We stayed for 4 nights in May 2018. Recommend getting a room at the end of the hall as we did and we had a quiet stayed. Access from 35E was easy, just need to pay attention to exit. Traffic from 4-7pm is very busy so plan accordingly. No free breakfast, but coffee was ready each morning at 0530. Would stay there again next time we come to Dallas.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r579180850-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>579180850</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Pleasant Stay &amp; Newly Renovated</t>
+  </si>
+  <si>
+    <t>The hotel has a free shuttle from Dallas Love Airport.  The hotel is only 4 miles or so from the airport.  Check-in was easy.
+ROOM (#117)
+The rom was nice.  There was a king bed with 2 night stands, clock, TV, closet with hangers, iron and board, dresser drawers, and 4 outlets plus 4 USB outlets for electronics.  The room has a door to close it off to the living room and bathroom.
+The living room area had a pull out couch with ottoman, desk and chair, TV, coffee maker, fridge, microwave, a safe for valuables, and 5 outlets plus 2 USB outlets for electronics.  The thermostat that controlled the AC worked well.
+BATHROOM
+The bathroom was clean.  There was a toilet, sink with countertop space for toiletries, shower/bathtub combination, and 2 more outlets for electronics.
+GYM/POOL
+The gym was nice and had a variety of options.  It was clean.  They had dumbbells 5-50 pounds, 2 benches, kettle bells, medicine balls, exercise balls, a huge cable machine, 4 treadmills, 2 ellipticals, and 2 stationary bicycles.
+There is an indoor/outdoor pool.  You can swim in both as they are separated by the plastic type divider you swim under to go back and forth.
+LOUNGE
+The lounge was pleasant and nice and clean.  In the evening, they had sodas and a coffee maker, bacon-wrapped scallops, little egg rolls, cheese and crackers and deli meat.  While the food was tasty, I expected more...The hotel has a free shuttle from Dallas Love Airport.  The hotel is only 4 miles or so from the airport.  Check-in was easy.ROOM (#117)The rom was nice.  There was a king bed with 2 night stands, clock, TV, closet with hangers, iron and board, dresser drawers, and 4 outlets plus 4 USB outlets for electronics.  The room has a door to close it off to the living room and bathroom.The living room area had a pull out couch with ottoman, desk and chair, TV, coffee maker, fridge, microwave, a safe for valuables, and 5 outlets plus 2 USB outlets for electronics.  The thermostat that controlled the AC worked well.BATHROOMThe bathroom was clean.  There was a toilet, sink with countertop space for toiletries, shower/bathtub combination, and 2 more outlets for electronics.GYM/POOLThe gym was nice and had a variety of options.  It was clean.  They had dumbbells 5-50 pounds, 2 benches, kettle bells, medicine balls, exercise balls, a huge cable machine, 4 treadmills, 2 ellipticals, and 2 stationary bicycles.There is an indoor/outdoor pool.  You can swim in both as they are separated by the plastic type divider you swim under to go back and forth.LOUNGEThe lounge was pleasant and nice and clean.  In the evening, they had sodas and a coffee maker, bacon-wrapped scallops, little egg rolls, cheese and crackers and deli meat.  While the food was tasty, I expected more options like fruit and vegetables, etc.OVERALLOverall the hotel was nice.  They have a free shuttle.  The room was clean and comfortable.  The gym was updated and sufficient.  The lounge was nice but could use added options.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The hotel has a free shuttle from Dallas Love Airport.  The hotel is only 4 miles or so from the airport.  Check-in was easy.
+ROOM (#117)
+The rom was nice.  There was a king bed with 2 night stands, clock, TV, closet with hangers, iron and board, dresser drawers, and 4 outlets plus 4 USB outlets for electronics.  The room has a door to close it off to the living room and bathroom.
+The living room area had a pull out couch with ottoman, desk and chair, TV, coffee maker, fridge, microwave, a safe for valuables, and 5 outlets plus 2 USB outlets for electronics.  The thermostat that controlled the AC worked well.
+BATHROOM
+The bathroom was clean.  There was a toilet, sink with countertop space for toiletries, shower/bathtub combination, and 2 more outlets for electronics.
+GYM/POOL
+The gym was nice and had a variety of options.  It was clean.  They had dumbbells 5-50 pounds, 2 benches, kettle bells, medicine balls, exercise balls, a huge cable machine, 4 treadmills, 2 ellipticals, and 2 stationary bicycles.
+There is an indoor/outdoor pool.  You can swim in both as they are separated by the plastic type divider you swim under to go back and forth.
+LOUNGE
+The lounge was pleasant and nice and clean.  In the evening, they had sodas and a coffee maker, bacon-wrapped scallops, little egg rolls, cheese and crackers and deli meat.  While the food was tasty, I expected more...The hotel has a free shuttle from Dallas Love Airport.  The hotel is only 4 miles or so from the airport.  Check-in was easy.ROOM (#117)The rom was nice.  There was a king bed with 2 night stands, clock, TV, closet with hangers, iron and board, dresser drawers, and 4 outlets plus 4 USB outlets for electronics.  The room has a door to close it off to the living room and bathroom.The living room area had a pull out couch with ottoman, desk and chair, TV, coffee maker, fridge, microwave, a safe for valuables, and 5 outlets plus 2 USB outlets for electronics.  The thermostat that controlled the AC worked well.BATHROOMThe bathroom was clean.  There was a toilet, sink with countertop space for toiletries, shower/bathtub combination, and 2 more outlets for electronics.GYM/POOLThe gym was nice and had a variety of options.  It was clean.  They had dumbbells 5-50 pounds, 2 benches, kettle bells, medicine balls, exercise balls, a huge cable machine, 4 treadmills, 2 ellipticals, and 2 stationary bicycles.There is an indoor/outdoor pool.  You can swim in both as they are separated by the plastic type divider you swim under to go back and forth.LOUNGEThe lounge was pleasant and nice and clean.  In the evening, they had sodas and a coffee maker, bacon-wrapped scallops, little egg rolls, cheese and crackers and deli meat.  While the food was tasty, I expected more options like fruit and vegetables, etc.OVERALLOverall the hotel was nice.  They have a free shuttle.  The room was clean and comfortable.  The gym was updated and sufficient.  The lounge was nice but could use added options.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r577680970-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>577680970</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Fabulous location</t>
+  </si>
+  <si>
+    <t>Excellent hotel with a great location - you can walk to restaurants in Uptown (about 3 miles).  Lovely, tree-lined safe area to run, walk, and enjoy a meal.We needed 2 beds and it was like 2 bedrooms - there was a door to close between them so we didn't disturb each other.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r570411355-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>570411355</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Very Clean, quiet friendly hotel.</t>
+  </si>
+  <si>
+    <t>Booked a king room online with a discount price. Figured we would get an average room.  Stayed on the fifth floor and it was a two bedroom suite with a balcony.  It was really quiet.  One thing I loved was the curtain worked great.  I like a dark room and this one was perfect.  They even serve StarBucks in the room. I'll def stay here if in town again!</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
 </sst>
 </file>
@@ -648,6 +800,362 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_679.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_679.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Toothfairy2</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Traci T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r585548385-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>The hotel itself was fine, the staff was pretty friendly BUT THE AC WASN’T SET AT ANYTHING BELOW 80.  It was warm in the rooms, warm in the hallway, warm in the lobby.  They must keep it up to save on their electric bill.  It was 97 degrees in Dallas so you want to have it nice and cool when you are inside.More</t>
   </si>
   <si>
+    <t>Richard F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r585152748-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -223,6 +232,9 @@
   </si>
   <si>
     <t>May 2018</t>
+  </si>
+  <si>
+    <t>JonnyBlaze777</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r579180850-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
@@ -266,6 +278,9 @@
 The lounge was pleasant and nice and clean.  In the evening, they had sodas and a coffee maker, bacon-wrapped scallops, little egg rolls, cheese and crackers and deli meat.  While the food was tasty, I expected more...The hotel has a free shuttle from Dallas Love Airport.  The hotel is only 4 miles or so from the airport.  Check-in was easy.ROOM (#117)The rom was nice.  There was a king bed with 2 night stands, clock, TV, closet with hangers, iron and board, dresser drawers, and 4 outlets plus 4 USB outlets for electronics.  The room has a door to close it off to the living room and bathroom.The living room area had a pull out couch with ottoman, desk and chair, TV, coffee maker, fridge, microwave, a safe for valuables, and 5 outlets plus 2 USB outlets for electronics.  The thermostat that controlled the AC worked well.BATHROOMThe bathroom was clean.  There was a toilet, sink with countertop space for toiletries, shower/bathtub combination, and 2 more outlets for electronics.GYM/POOLThe gym was nice and had a variety of options.  It was clean.  They had dumbbells 5-50 pounds, 2 benches, kettle bells, medicine balls, exercise balls, a huge cable machine, 4 treadmills, 2 ellipticals, and 2 stationary bicycles.There is an indoor/outdoor pool.  You can swim in both as they are separated by the plastic type divider you swim under to go back and forth.LOUNGEThe lounge was pleasant and nice and clean.  In the evening, they had sodas and a coffee maker, bacon-wrapped scallops, little egg rolls, cheese and crackers and deli meat.  While the food was tasty, I expected more options like fruit and vegetables, etc.OVERALLOverall the hotel was nice.  They have a free shuttle.  The room was clean and comfortable.  The gym was updated and sufficient.  The lounge was nice but could use added options.  I would stay here again.More</t>
   </si>
   <si>
+    <t>jts621</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r577680970-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
   </si>
   <si>
     <t>Excellent hotel with a great location - you can walk to restaurants in Uptown (about 3 miles).  Lovely, tree-lined safe area to run, walk, and enjoy a meal.We needed 2 beds and it was like 2 bedrooms - there was a door to close between them so we didn't disturb each other.</t>
+  </si>
+  <si>
+    <t>FamilyDad22</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r570411355-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
@@ -804,43 +822,47 @@
       <c r="A2" t="n">
         <v>16651</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>177376</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -860,50 +882,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>16651</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>18606</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -915,56 +941,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>16651</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>11210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -982,50 +1012,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>16651</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>32372</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1039,41 +1073,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>16651</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>177377</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
@@ -1092,50 +1130,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>16651</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>177378</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1153,7 +1195,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_679.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_679.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
   <si>
     <t>STR#</t>
   </si>
@@ -150,42 +150,216 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Toothfairy2</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r610358927-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>98719</t>
+  </si>
+  <si>
+    <t>610358927</t>
+  </si>
+  <si>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business trip. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall a good experience. There was a water leak in my bathroom they “fixed” on my first day. They slowed the leak but didn’t fix it. Hotel staff was friendly, very clean. It looks old from the outside but has been remodeled on the inside. </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r605805354-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>605805354</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>Dirty and loud hotel</t>
+  </si>
+  <si>
+    <t>Staying here for a conference at another facility and there was not even an attempt to clean the room. Men’s face stubble all over the sink, faucet and countertop. Come on now! Even if your not going to clean it at least rinse it with water and no one would know. Dirty shower/tub floor too. It doesn’t take much effort to “fake”clean a room but obviously that was too much effort for this room. Cleaning staff should be ashamed. Also the sliding doors and windows are super thin and you can hear every single vehicle go by on 77. And I mean every single vehicle. Pretty and spacious room/suite but too dirty and loud to even recommend beyond one star. I hope I can find another hotel nearby with availability. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen W, Front Office Manager at Sheraton Suites Market Center, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Staying here for a conference at another facility and there was not even an attempt to clean the room. Men’s face stubble all over the sink, faucet and countertop. Come on now! Even if your not going to clean it at least rinse it with water and no one would know. Dirty shower/tub floor too. It doesn’t take much effort to “fake”clean a room but obviously that was too much effort for this room. Cleaning staff should be ashamed. Also the sliding doors and windows are super thin and you can hear every single vehicle go by on 77. And I mean every single vehicle. Pretty and spacious room/suite but too dirty and loud to even recommend beyond one star. I hope I can find another hotel nearby with availability. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r603604670-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>603604670</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel at Great Price</t>
+  </si>
+  <si>
+    <t>Really surprised at what we got for the price. I would highly recommend getting the club access deal. It might be a little more money but very minimal and well worth it. The hotel is very nice and well kept. The staff was nice and helpful and tend to your every need. The club access offers you breakfast bar and evening finger foods which are delicious and of variety. You also get free sodas, water, milk and yogurt 24 hrs. They offer one free adult beverage and then discounted drinks for about 2 hrs in the evening. The hotel has a nice courtyard with plenty of seating, pool table and business center and a pretty good workout facility. The pool was awesome. It is an indoor/outdoor pool so you can swim from the inside to the outside. The outside courtyard around the pool is very spacious with lounge chairs patio furniture. It is very relaxing. The family loved this hotel we only wish we could have stayed longer. Definitely going back here!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Really surprised at what we got for the price. I would highly recommend getting the club access deal. It might be a little more money but very minimal and well worth it. The hotel is very nice and well kept. The staff was nice and helpful and tend to your every need. The club access offers you breakfast bar and evening finger foods which are delicious and of variety. You also get free sodas, water, milk and yogurt 24 hrs. They offer one free adult beverage and then discounted drinks for about 2 hrs in the evening. The hotel has a nice courtyard with plenty of seating, pool table and business center and a pretty good workout facility. The pool was awesome. It is an indoor/outdoor pool so you can swim from the inside to the outside. The outside courtyard around the pool is very spacious with lounge chairs patio furniture. It is very relaxing. The family loved this hotel we only wish we could have stayed longer. Definitely going back here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r597010262-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>597010262</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>All Around Great Hotel!</t>
+  </si>
+  <si>
+    <t>From the awesome on site Bar &amp; Restaurant, to the fitness center and nice-looking rooms, this place has it all. This place is also located in the Design District of Dallas and is literally within walking distance of both great restaurants &amp; breweries. Plus it's a short drive from many of Dallas' most highly sought after attractions like Reunion Tower or the Book Depository.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r592829777-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>592829777</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Better than expected visit.</t>
+  </si>
+  <si>
+    <t>The hotel is in a bit of an awkward location that was chosen only because another hotel was full.  Happily, this place exceeded expectations.  The room was large, clean and comfortable.  The bartender was outstanding, old-school and professional.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r589946920-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>589946920</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>nice hotel  really liked it here</t>
+  </si>
+  <si>
+    <t>this is a great hotel very close to the gift mart.  you can walk across the street to get to show.  Hotel room was spacious.  bed was comfy.  air conditioner worked very well.  people were friendly.  I really liked it here.  will be back</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r589831158-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>589831158</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Newly renovated rooms, Great staff</t>
+  </si>
+  <si>
+    <t>I have stayed at this property many times, and always like it. The rooms are clean and newly renovated, and the staff is always nice.  Shuttle driver excellent, and the amenities are great. Breakfast buffet in the morning great, Pool is both indoor and outdoor, has a great weight room. Stephen and Eva are amazing and have been there for long enough to make you KNOW that they care.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r588414118-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>588414118</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Quick Dallas visit</t>
+  </si>
+  <si>
+    <t>Hotel was clean. Service was ok at desk. Shuttle guy was so friendly. However, their idea of 3 mile radius is different than google. Fitness center nice. Pool area was ok. It is a lot smaller than it looks online. You pay for breakfast, and I did not try it. Room was beautiful, but my tv was in a very strange place. There was a wall in bath with a lot of hair on wall.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Stephen W, Front Office Manager at Sheraton Suites Market Center, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Hotel was clean. Service was ok at desk. Shuttle guy was so friendly. However, their idea of 3 mile radius is different than google. Fitness center nice. Pool area was ok. It is a lot smaller than it looks online. You pay for breakfast, and I did not try it. Room was beautiful, but my tv was in a very strange place. There was a wall in bath with a lot of hair on wall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r586089935-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>586089935</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>avoid if you are starwood gold</t>
+  </si>
+  <si>
+    <t>The hotel is in a good location and the rooms adequate (although the king bedroom is very cramped). I travel a lot and have gold status with Starwood. Almost every Starwood property I stay at lets gold and platnium members use the lounge. This hotel is different. Upon check-in the person at the front desk said the manager decided to restrict the lounge to platnium only. So gold means, in the words of the front desk fellow, "nothing" here. There are many other choices nearby. I will stay at the Anatole or even the Courtyard next door next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen W, Front Office Manager at Sheraton Suites Market Center, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is in a good location and the rooms adequate (although the king bedroom is very cramped). I travel a lot and have gold status with Starwood. Almost every Starwood property I stay at lets gold and platnium members use the lounge. This hotel is different. Upon check-in the person at the front desk said the manager decided to restrict the lounge to platnium only. So gold means, in the words of the front desk fellow, "nothing" here. There are many other choices nearby. I will stay at the Anatole or even the Courtyard next door next time.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r586058566-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>98719</t>
-  </si>
-  <si>
     <t>586058566</t>
   </si>
   <si>
-    <t>06/08/2018</t>
-  </si>
-  <si>
     <t>Remodeled...working out the kinks.</t>
   </si>
   <si>
     <t>The rooms and lobby have all been remodeled and very tastefully done!  The AC was not working in the lobby and halls when we arrived, but fixed within a few hours.  The room was nice and clean.  The staff was very accommodating and friendly.  We dined in the little restaurant by the bar and found it rather disappointing.  With so many great local restaurants...go out.</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Traci T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r585548385-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -201,21 +375,15 @@
     <t>The hotel itself was fine, the staff was pretty friendly BUT THE AC WASN’T SET AT ANYTHING BELOW 80.  It was warm in the rooms, warm in the hallway, warm in the lobby.  They must keep it up to save on their electric bill.  It was 97 degrees in Dallas so you want to have it nice and cool when you are inside.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Stephen W, Front Office Manager at Sheraton Suites Market Center, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>Stephen W, Front Office Manager at Sheraton Suites Market Center, responded to this reviewResponded June 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2018</t>
   </si>
   <si>
     <t>The hotel itself was fine, the staff was pretty friendly BUT THE AC WASN’T SET AT ANYTHING BELOW 80.  It was warm in the rooms, warm in the hallway, warm in the lobby.  They must keep it up to save on their electric bill.  It was 97 degrees in Dallas so you want to have it nice and cool when you are inside.More</t>
   </si>
   <si>
-    <t>Richard F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r585152748-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -231,10 +399,52 @@
     <t>We stayed for 4 nights in May 2018. Recommend getting a room at the end of the hall as we did and we had a quiet stayed. Access from 35E was easy, just need to pay attention to exit. Traffic from 4-7pm is very busy so plan accordingly. No free breakfast, but coffee was ready each morning at 0530. Would stay there again next time we come to Dallas.</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t>JonnyBlaze777</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r581852162-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>581852162</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>We stayed for 1 week with 3 people in a 4person bedroom. Every day there was something wrong. Not enough towels, room not cleaned, coffee for 2 instead of 3 people, found stuff of the other guests before us, forget cleaning stuff in our room... They solved it every time, but never, not even once said sorry.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Stephen W, Front Office Manager at Sheraton Suites Market Center, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>We stayed for 1 week with 3 people in a 4person bedroom. Every day there was something wrong. Not enough towels, room not cleaned, coffee for 2 instead of 3 people, found stuff of the other guests before us, forget cleaning stuff in our room... They solved it every time, but never, not even once said sorry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r579435887-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>579435887</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>Awesome Stay!! Friendly Staff!</t>
+  </si>
+  <si>
+    <t>I came to this property for my anniversary, it was my first time in Texas and everything from my check in to check out was fantastic. Hospitality is really done well here. Faith is a great asset to this property and truly understand the weaning of customer service. It was her 21st birthday and had finals the next day and still upheld an awesome level of customer service and professionalism. When we got to the room, everything was very clean, shout out to the housekeeping staff for being friendly and quick with all of my extra requests. The Food &amp; Beverage department is blessed to have Miss. Blanca on their team, she was very accommodating with my dietary restrictions and went above and beyond in assisting us with our television to the best of her capabilities, she even sent up engineering on my behalf. Miguel was very patient with us and was determined to get our tv set up the way we wanted. Also Anthony at the front desk was amazing is giving us recommendation for a cute brunch date at bread winners. Needless to say, I had an amazing stay and would love to return.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I came to this property for my anniversary, it was my first time in Texas and everything from my check in to check out was fantastic. Hospitality is really done well here. Faith is a great asset to this property and truly understand the weaning of customer service. It was her 21st birthday and had finals the next day and still upheld an awesome level of customer service and professionalism. When we got to the room, everything was very clean, shout out to the housekeeping staff for being friendly and quick with all of my extra requests. The Food &amp; Beverage department is blessed to have Miss. Blanca on their team, she was very accommodating with my dietary restrictions and went above and beyond in assisting us with our television to the best of her capabilities, she even sent up engineering on my behalf. Miguel was very patient with us and was determined to get our tv set up the way we wanted. Also Anthony at the front desk was amazing is giving us recommendation for a cute brunch date at bread winners. Needless to say, I had an amazing stay and would love to return.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r579180850-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
@@ -262,9 +472,6 @@
 The lounge was pleasant and nice and clean.  In the evening, they had sodas and a coffee maker, bacon-wrapped scallops, little egg rolls, cheese and crackers and deli meat.  While the food was tasty, I expected more...The hotel has a free shuttle from Dallas Love Airport.  The hotel is only 4 miles or so from the airport.  Check-in was easy.ROOM (#117)The rom was nice.  There was a king bed with 2 night stands, clock, TV, closet with hangers, iron and board, dresser drawers, and 4 outlets plus 4 USB outlets for electronics.  The room has a door to close it off to the living room and bathroom.The living room area had a pull out couch with ottoman, desk and chair, TV, coffee maker, fridge, microwave, a safe for valuables, and 5 outlets plus 2 USB outlets for electronics.  The thermostat that controlled the AC worked well.BATHROOMThe bathroom was clean.  There was a toilet, sink with countertop space for toiletries, shower/bathtub combination, and 2 more outlets for electronics.GYM/POOLThe gym was nice and had a variety of options.  It was clean.  They had dumbbells 5-50 pounds, 2 benches, kettle bells, medicine balls, exercise balls, a huge cable machine, 4 treadmills, 2 ellipticals, and 2 stationary bicycles.There is an indoor/outdoor pool.  You can swim in both as they are separated by the plastic type divider you swim under to go back and forth.LOUNGEThe lounge was pleasant and nice and clean.  In the evening, they had sodas and a coffee maker, bacon-wrapped scallops, little egg rolls, cheese and crackers and deli meat.  While the food was tasty, I expected more options like fruit and vegetables, etc.OVERALLOverall the hotel was nice.  They have a free shuttle.  The room was clean and comfortable.  The gym was updated and sufficient.  The lounge was nice but could use added options.  I would stay here again.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>The hotel has a free shuttle from Dallas Love Airport.  The hotel is only 4 miles or so from the airport.  Check-in was easy.
 ROOM (#117)
 The rom was nice.  There was a king bed with 2 night stands, clock, TV, closet with hangers, iron and board, dresser drawers, and 4 outlets plus 4 USB outlets for electronics.  The room has a door to close it off to the living room and bathroom.
@@ -278,9 +485,6 @@
 The lounge was pleasant and nice and clean.  In the evening, they had sodas and a coffee maker, bacon-wrapped scallops, little egg rolls, cheese and crackers and deli meat.  While the food was tasty, I expected more...The hotel has a free shuttle from Dallas Love Airport.  The hotel is only 4 miles or so from the airport.  Check-in was easy.ROOM (#117)The rom was nice.  There was a king bed with 2 night stands, clock, TV, closet with hangers, iron and board, dresser drawers, and 4 outlets plus 4 USB outlets for electronics.  The room has a door to close it off to the living room and bathroom.The living room area had a pull out couch with ottoman, desk and chair, TV, coffee maker, fridge, microwave, a safe for valuables, and 5 outlets plus 2 USB outlets for electronics.  The thermostat that controlled the AC worked well.BATHROOMThe bathroom was clean.  There was a toilet, sink with countertop space for toiletries, shower/bathtub combination, and 2 more outlets for electronics.GYM/POOLThe gym was nice and had a variety of options.  It was clean.  They had dumbbells 5-50 pounds, 2 benches, kettle bells, medicine balls, exercise balls, a huge cable machine, 4 treadmills, 2 ellipticals, and 2 stationary bicycles.There is an indoor/outdoor pool.  You can swim in both as they are separated by the plastic type divider you swim under to go back and forth.LOUNGEThe lounge was pleasant and nice and clean.  In the evening, they had sodas and a coffee maker, bacon-wrapped scallops, little egg rolls, cheese and crackers and deli meat.  While the food was tasty, I expected more options like fruit and vegetables, etc.OVERALLOverall the hotel was nice.  They have a free shuttle.  The room was clean and comfortable.  The gym was updated and sufficient.  The lounge was nice but could use added options.  I would stay here again.More</t>
   </si>
   <si>
-    <t>jts621</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r577680970-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -296,9 +500,6 @@
     <t>Excellent hotel with a great location - you can walk to restaurants in Uptown (about 3 miles).  Lovely, tree-lined safe area to run, walk, and enjoy a meal.We needed 2 beds and it was like 2 bedrooms - there was a door to close between them so we didn't disturb each other.</t>
   </si>
   <si>
-    <t>FamilyDad22</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r570411355-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -317,7 +518,19 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98719-r569724349-Sheraton_Suites_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>569724349</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Good deal for the price</t>
+  </si>
+  <si>
+    <t>Besides the staff always being very friendly here, it's hard to complain about a room that you can get for around $100 that has a living room separate from the bedroom.  This hotel has undergone a lot of renovations over the past few years. The lobby area looks nice and there are always a lot of people around the bar at night. The kids like the pool especially when it is open both inside and out so they can swim in &amp; out through the wall.  Added benefit is that it is walking distance to Medieval Times, always a favorite for them.</t>
   </si>
 </sst>
 </file>
@@ -822,115 +1035,97 @@
       <c r="A2" t="n">
         <v>16651</v>
       </c>
-      <c r="B2" t="n">
-        <v>177376</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>16651</v>
       </c>
-      <c r="B3" t="n">
-        <v>18606</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
       <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -941,62 +1136,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>16651</v>
       </c>
-      <c r="B4" t="n">
-        <v>11210</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" t="s"/>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
       <c r="Q4" t="n">
         <v>4</v>
       </c>
@@ -1004,7 +1197,7 @@
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1012,55 +1205,47 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>16651</v>
       </c>
-      <c r="B5" t="n">
-        <v>32372</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
       <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" t="s">
-        <v>78</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -1073,129 +1258,859 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>16651</v>
       </c>
-      <c r="B6" t="n">
-        <v>177377</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>16651</v>
       </c>
-      <c r="B7" t="n">
-        <v>177378</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
         <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>119</v>
+      </c>
+      <c r="X12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>133</v>
+      </c>
+      <c r="X14" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>141</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16651</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
